--- a/announce_hindi.xlsx
+++ b/announce_hindi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projec 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\railway-announcement-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A248E-7428-49DA-B48A-3693D328497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9AB0D-33F3-462B-BF43-2B7A3B8705AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>train_no</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>1 2 5 6 5</t>
+  </si>
+  <si>
+    <t>savtantra senani express</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Darbhanga</t>
+  </si>
+  <si>
+    <t>Gorakhpur</t>
   </si>
 </sst>
 </file>
@@ -390,16 +405,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
@@ -464,6 +480,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/announce_hindi.xlsx
+++ b/announce_hindi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\railway-announcement-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9AB0D-33F3-462B-BF43-2B7A3B8705AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C532676D-D2A1-4F8E-A616-3E39D56B6C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,19 +75,19 @@
     <t>Ghaziabad</t>
   </si>
   <si>
-    <t>1 2 5 6 5</t>
-  </si>
-  <si>
-    <t>savtantra senani express</t>
-  </si>
-  <si>
     <t>New Delhi</t>
   </si>
   <si>
-    <t>Darbhanga</t>
-  </si>
-  <si>
-    <t>Gorakhpur</t>
+    <t>Swatantrata Senani Express</t>
+  </si>
+  <si>
+    <t>1 2 5 6 1</t>
+  </si>
+  <si>
+    <t>Jaynagar</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +482,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
